--- a/Horarios_India_II/Marzo_2024.xlsx
+++ b/Horarios_India_II/Marzo_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/Horarios_SOGEMER/Horarios_Sogemer/Horarios_India_II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62AB2C4-E9E7-D44E-8CBA-1AEDD4E784B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA9126-5DEB-0248-BAD3-15E1B49B70AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1520" windowWidth="38400" windowHeight="21100" xr2:uid="{DFD0C86B-455B-CB4D-BCA6-37C0C1977F3F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="64">
   <si>
     <t>Nombre y Apellidos</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mar </t>
+  </si>
+  <si>
+    <t>TEODORA &amp; VICENTE</t>
+  </si>
+  <si>
+    <t>MELANIA PEQUE</t>
+  </si>
+  <si>
+    <t>HUSEIN &amp; LORENZO</t>
   </si>
 </sst>
 </file>
@@ -732,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -873,9 +882,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,7 +1420,7 @@
   <dimension ref="B2:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1734,7 @@
       <c r="D6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="62" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="56" t="s">
@@ -1782,7 +1788,7 @@
       <c r="V6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="62" t="s">
         <v>3</v>
       </c>
       <c r="X6" s="61" t="s">
@@ -1924,7 +1930,7 @@
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="56" t="s">
@@ -1951,7 +1957,7 @@
       <c r="K8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="62" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="56" t="s">
@@ -1966,7 +1972,7 @@
       <c r="P8" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="66" t="s">
+      <c r="Q8" s="65" t="s">
         <v>4</v>
       </c>
       <c r="R8" s="56" t="s">
@@ -2014,8 +2020,8 @@
       <c r="AF8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="61" t="s">
-        <v>1</v>
+      <c r="AG8" s="62" t="s">
+        <v>3</v>
       </c>
       <c r="AH8" s="23">
         <v>6</v>
@@ -2025,7 +2031,7 @@
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="56" t="s">
@@ -2064,7 +2070,7 @@
       <c r="O9" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="62" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="61" t="s">
@@ -2094,7 +2100,7 @@
       <c r="Y9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="Z9" s="62" t="s">
         <v>3</v>
       </c>
       <c r="AA9" s="56" t="s">
@@ -2141,13 +2147,13 @@
       <c r="G10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="62" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="64" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="56" t="s">
@@ -2162,8 +2168,8 @@
       <c r="N10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="56" t="s">
-        <v>4</v>
+      <c r="O10" s="62" t="s">
+        <v>15</v>
       </c>
       <c r="P10" s="56" t="s">
         <v>5</v>
@@ -2189,7 +2195,7 @@
       <c r="W10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="63" t="s">
+      <c r="X10" s="62" t="s">
         <v>15</v>
       </c>
       <c r="Y10" s="56" t="s">
@@ -2227,7 +2233,7 @@
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="58" t="s">
@@ -2245,7 +2251,7 @@
       <c r="H11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="62" t="s">
         <v>3</v>
       </c>
       <c r="J11" s="61" t="s">
@@ -2275,7 +2281,7 @@
       <c r="R11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="62" t="s">
         <v>3</v>
       </c>
       <c r="T11" s="58" t="s">
@@ -2290,7 +2296,7 @@
       <c r="W11" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="X11" s="64" t="s">
+      <c r="X11" s="63" t="s">
         <v>1</v>
       </c>
       <c r="Y11" s="58" t="s">
@@ -2308,10 +2314,10 @@
       <c r="AC11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AD11" s="19" t="s">
+      <c r="AD11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AE11" s="64" t="s">
+      <c r="AE11" s="63" t="s">
         <v>1</v>
       </c>
       <c r="AF11" s="61" t="s">
@@ -2370,7 +2376,7 @@
       <c r="P12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="63" t="s">
+      <c r="Q12" s="62" t="s">
         <v>15</v>
       </c>
       <c r="R12" s="32" t="s">
@@ -2412,13 +2418,13 @@
       <c r="AD12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AE12" s="63" t="s">
+      <c r="AE12" s="62" t="s">
         <v>15</v>
       </c>
       <c r="AF12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AG12" s="63" t="s">
+      <c r="AG12" s="62" t="s">
         <v>3</v>
       </c>
       <c r="AH12" s="13">
@@ -2435,7 +2441,7 @@
       <c r="D13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="62" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="32" t="s">
@@ -2486,7 +2492,7 @@
       <c r="U13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="V13" s="63" t="s">
+      <c r="V13" s="62" t="s">
         <v>15</v>
       </c>
       <c r="W13" s="32" t="s">
@@ -2548,7 +2554,7 @@
       <c r="H14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="62" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="32" t="s">
@@ -2578,8 +2584,8 @@
       <c r="R14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>4</v>
+      <c r="S14" s="62" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="32" t="s">
         <v>4</v>
@@ -2590,7 +2596,7 @@
       <c r="V14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="W14" s="63" t="s">
+      <c r="W14" s="62" t="s">
         <v>3</v>
       </c>
       <c r="X14" s="32" t="s">
@@ -2658,7 +2664,7 @@
       <c r="K15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="62" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="32" t="s">
@@ -2700,7 +2706,7 @@
       <c r="Y15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="63" t="s">
+      <c r="Z15" s="62" t="s">
         <v>3</v>
       </c>
       <c r="AA15" s="32" t="s">
@@ -2753,7 +2759,7 @@
       <c r="I16" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="62" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="60" t="s">
@@ -2810,7 +2816,7 @@
       <c r="AB16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AC16" s="63" t="s">
+      <c r="AC16" s="62" t="s">
         <v>15</v>
       </c>
       <c r="AD16" s="32" t="s">
@@ -2872,7 +2878,7 @@
       <c r="O17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="63" t="s">
+      <c r="P17" s="62" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="32" t="s">
@@ -2914,7 +2920,7 @@
       <c r="AC17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AD17" s="63" t="s">
+      <c r="AD17" s="62" t="s">
         <v>3</v>
       </c>
       <c r="AE17" s="32" t="s">
@@ -3020,11 +3026,17 @@
       <c r="W25" s="50"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="J26" s="48"/>
+      <c r="J26" s="48">
+        <v>45352</v>
+      </c>
       <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="L26" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
+      <c r="N26" s="45" t="s">
+        <v>8</v>
+      </c>
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
@@ -3036,11 +3048,17 @@
       <c r="W26" s="45"/>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="J27" s="48"/>
+      <c r="J27" s="48">
+        <v>45354</v>
+      </c>
       <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
+      <c r="L27" s="45" t="s">
+        <v>3</v>
+      </c>
       <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
+      <c r="N27" s="45" t="s">
+        <v>61</v>
+      </c>
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
@@ -3052,11 +3070,17 @@
       <c r="W27" s="45"/>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="J28" s="48"/>
+      <c r="J28" s="48">
+        <v>45357</v>
+      </c>
       <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="L28" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="N28" s="45" t="s">
+        <v>62</v>
+      </c>
       <c r="O28" s="45"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
@@ -3068,11 +3092,17 @@
       <c r="W28" s="45"/>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="J29" s="48"/>
+      <c r="J29" s="48">
+        <v>45358</v>
+      </c>
       <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="L29" s="45" t="s">
+        <v>3</v>
+      </c>
       <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
+      <c r="N29" s="45" t="s">
+        <v>63</v>
+      </c>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="45"/>
@@ -3084,11 +3114,17 @@
       <c r="W29" s="45"/>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="J30" s="48"/>
+      <c r="J30" s="48">
+        <v>45359</v>
+      </c>
       <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
+      <c r="L30" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
+      <c r="N30" s="45" t="s">
+        <v>30</v>
+      </c>
       <c r="O30" s="45"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>

--- a/Horarios_India_II/Marzo_2024.xlsx
+++ b/Horarios_India_II/Marzo_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/Horarios_SOGEMER/Horarios_Sogemer/Horarios_India_II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA9126-5DEB-0248-BAD3-15E1B49B70AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CDCFDA-B5D5-2246-AD83-AF46CE2232B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1520" windowWidth="38400" windowHeight="21100" xr2:uid="{DFD0C86B-455B-CB4D-BCA6-37C0C1977F3F}"/>
   </bookViews>
@@ -1420,7 +1420,7 @@
   <dimension ref="B2:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
